--- a/aset/xlsx/XII MIPA 2 Belajar ID.xlsx
+++ b/aset/xlsx/XII MIPA 2 Belajar ID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Evan/GraduOsis/aset/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61252D64-1E04-804E-AA24-DA50879EB07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8F6922-1788-6840-B80C-BB8E234EAB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="3" r:id="rId1"/>
@@ -51,7 +51,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Nama Siswa</t>
+      <t>L/P</t>
     </r>
   </si>
   <si>
@@ -62,7 +62,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>L/P</t>
+      <t>belajarid_email</t>
     </r>
   </si>
   <si>
@@ -73,17 +73,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>belajarid_email</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>initial_password</t>
     </r>
   </si>
@@ -956,6 +945,9 @@
   </si>
   <si>
     <t>https://docs.google.com/forms/d/e/1FAIpQLSexvoynW3aaeDnY4JFmigiS2KHwSkF8uiOCWR4Aw1jbrwnA2g/formResponse?usp=pp_url&amp;entry.133681808=Zakiyah+Nabilah+Rahmah&amp;entry.1166059535=Hadir</t>
+  </si>
+  <si>
+    <t>Nama_Siswa</t>
   </si>
 </sst>
 </file>
@@ -1378,22 +1370,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -1401,19 +1393,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -1421,19 +1413,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -1441,19 +1433,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="G4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -1461,19 +1453,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -1481,19 +1473,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -1501,19 +1493,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -1521,19 +1513,19 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="G8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -1541,19 +1533,19 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="G9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -1561,19 +1553,19 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -1581,19 +1573,19 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -1601,19 +1593,19 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="G12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -1621,19 +1613,19 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="G13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -1641,19 +1633,19 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -1661,19 +1653,19 @@
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="G15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -1681,19 +1673,19 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -1701,19 +1693,19 @@
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -1721,19 +1713,19 @@
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -1741,19 +1733,19 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="G19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -1761,19 +1753,19 @@
         <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="G20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -1781,19 +1773,19 @@
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="G21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -1801,19 +1793,19 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="G22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -1821,19 +1813,19 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -1841,19 +1833,19 @@
         <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -1861,19 +1853,19 @@
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="G25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -1881,19 +1873,19 @@
         <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="G26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -1901,19 +1893,19 @@
         <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="G27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -1921,19 +1913,19 @@
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="G28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -1941,19 +1933,19 @@
         <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="G29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -1961,19 +1953,19 @@
         <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -1981,19 +1973,19 @@
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="G31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -2001,19 +1993,19 @@
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -2021,19 +2013,19 @@
         <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="G33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -2041,19 +2033,19 @@
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="G34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -2061,19 +2053,19 @@
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="G35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.15">
@@ -2081,19 +2073,19 @@
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="G36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
